--- a/products info/products info.xlsx
+++ b/products info/products info.xlsx
@@ -24,59 +24,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>product #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CAMEL-CROWN-Person-Camping-Green-2Person/dp/B08RJ92BGM/ref=sr_1_1_sspa?crid=WRN95VB75QSS&amp;keywords=camping+tent&amp;qid=1688789541&amp;sprefix=camping+tent%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyester</t>
+  </si>
+  <si>
+    <t>🌄 ✔MATERIAL AND ACCESSORIES: Equipped with the polyester outer shell, 8.5mm glass fiber bracket,150D Oxford cloth PU2000 in internal proof,150D Oxford cloth PU3000 in base fabric,4 windproof rope, 8 iron ground stakes.</t>
+  </si>
+  <si>
+    <t>🌄 ✔DURABLE &amp; STABLE DESIGN: Aluminum poles, iron ground stakes, and windproof rope guarantee the tent sturdy and difficult to deform even on windy or rainy days.</t>
+  </si>
+  <si>
+    <t>🌄 ✔GREAT VENTILATION: Double-layer dual-purpose design on the top, external mosquito-proof breathable screens. Promote air circulation in the tent, enjoy the natural scenery inside.</t>
+  </si>
+  <si>
+    <t>🌄 ✔EASY ASSEMBLY: Easy setup in only a few minutes, with the lightweight portable carrying bag, this dome camping tent can be taken to anywhere.</t>
+  </si>
+  <si>
+    <t>🌄 ✔OCCASIONS: This is an ideal tent to satisfy your needs for various purposes such as camping, hiking, fishing, surfing, outdoor BBQ, adventure, family parties, and field trips.</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Coleman-4-Person-Camping-Sundome-Setup/dp/B019N9W7WC/ref=sr_1_3?crid=WRN95VB75QSS&amp;keywords=camping+tent&amp;qid=1688790059&amp;sprefix=camping+tent%2Caps%2C140&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Dome tent with a sturdy frame that withstands 35+ mph winds</t>
+  </si>
+  <si>
+    <t>Easy setup in only 10 minutes. Good for backpacking</t>
+  </si>
+  <si>
+    <t>Weathertec system with patented welded floors and inverted seams to keep you dry</t>
+  </si>
+  <si>
+    <t>Large windows and a ground vent for superior ventilation</t>
+  </si>
+  <si>
+    <t>Measures 7 x 5 feet with 4-foot center height</t>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sleeping bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/oaskys-Camping-Sleeping-Bag-Lightweight/dp/B07MFTD2YS/ref=sr_1_3?keywords=camping%2Bsleeping%2Bbags&amp;qid=1688790585&amp;sprefix=camping%2Bsleeping%2B%2Caps%2C171&amp;sr=8-3&amp;th=1&amp;psc=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nylon</t>
+  </si>
+  <si>
+    <t>Imported</t>
+  </si>
+  <si>
+    <t>USED FOR 3 SEASONS:Our Sleeping Bags can be used for 3 seasons.They are designed for 10~20 Degrees Celsius. Moreover, these bags also have a weather-resistant design to keep you warm even in extreme conditions and prevent you from any dampness - this is achieved through double-filled technology.our sleeping bags are designed to ensure that after a tiring day of trekking, hiking, travel or any other exploration you can get a good and relaxing night sleep.</t>
+  </si>
+  <si>
+    <t>DESIGN: Separated zipper at the bottom can also make your feet often come out through the wind. Half-circle hood with adjustable drawstring keeps your head warmer even in extreme conditions.Our sleeping bags are designed to provide much needed rest after a full day of outdoor activities.</t>
+  </si>
+  <si>
+    <t>MATERIAL:Outer Cover Material-premium 210T Anti-tearing Polyester Fabric which is waterproof and Breathable; Lining Material:190T polyester pongee</t>
+  </si>
+  <si>
+    <t>SIZE&amp;EASY TO CARRY:(190 + 30)cm x 75 cm.Can be wiped clean making it versatile and convenient. Each sleeping bag comes with a compression sack with straps, allowing for super convenient storage and easy carry maneuverability</t>
+  </si>
+  <si>
+    <t>100% SATISFACTION :100% NO QUESTIONS ASKED, no hassle money back or replacement .We try over very best to make sure every customer is completely satisfied. If there's a problem, message us! Order now!At your service,dear.Anyway,thanks for your coming</t>
+  </si>
+  <si>
+    <t>oaskys Camping Sleeping Bag - 3 Season Warm &amp; Cool Weather - Summer Spring Fall Lightweight Waterproof for Adults Kids - Camping Gear Equipment, Traveling, and Outdoors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coleman Sundome Camping Tent, 2/3/4/6 Person Dome Tent with Easy Setup, Included Rainfly and WeatherTec Floor to Block Out Water, 2 Windows and 1 Ground Vent for Air Flow with Charging E-Port Flap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CAMEL CROWN 2/3/4/5 Person Camping Dome Tent, Waterproof,Spacious, Lightweight Portable Backpacking Tent for Outdoor Camping/Hiking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CAMEL-CROWN-Person-Camping-Green-2Person/dp/B08RJ92BGM/ref=sr_1_1_sspa?crid=WRN95VB75QSS&amp;keywords=camping+tent&amp;qid=1688789541&amp;sprefix=camping+tent%2Caps%2C140&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polyester</t>
-  </si>
-  <si>
-    <t>🌄 ✔MATERIAL AND ACCESSORIES: Equipped with the polyester outer shell, 8.5mm glass fiber bracket,150D Oxford cloth PU2000 in internal proof,150D Oxford cloth PU3000 in base fabric,4 windproof rope, 8 iron ground stakes.</t>
-  </si>
-  <si>
-    <t>🌄 ✔DURABLE &amp; STABLE DESIGN: Aluminum poles, iron ground stakes, and windproof rope guarantee the tent sturdy and difficult to deform even on windy or rainy days.</t>
-  </si>
-  <si>
-    <t>🌄 ✔GREAT VENTILATION: Double-layer dual-purpose design on the top, external mosquito-proof breathable screens. Promote air circulation in the tent, enjoy the natural scenery inside.</t>
-  </si>
-  <si>
-    <t>🌄 ✔EASY ASSEMBLY: Easy setup in only a few minutes, with the lightweight portable carrying bag, this dome camping tent can be taken to anywhere.</t>
-  </si>
-  <si>
-    <t>🌄 ✔OCCASIONS: This is an ideal tent to satisfy your needs for various purposes such as camping, hiking, fishing, surfing, outdoor BBQ, adventure, family parties, and field trips.</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AACARB Sleeping Bags for Adults, Outdoor Camping Sleeping Bags Waterproof Ultralight Heating Winter Sleeping Bag Adults Sleep Camp Gears with Heating Pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AACARB-Sleeping-Outdoor-Waterproof-Ultralight/dp/B0C4GCLBR7/ref=sr_1_7?crid=R8EC0TRYJEV2&amp;keywords=camping+sleeping+bags&amp;qid=1688790824&amp;sprefix=camping+sleeping+bags%2Caps%2C171&amp;sr=8-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nylon</t>
+  </si>
+  <si>
+    <t>Country as Labeled</t>
+  </si>
+  <si>
+    <t>✔ Our sleeping bags are designed to provide much needed rest after a full day of outdoor activities.</t>
+  </si>
+  <si>
+    <t>*It warms up in seconds by the composite metal fiber heating system.</t>
+  </si>
+  <si>
+    <t>*The heated sleeping bag iteself can be used as a normal sleeping bag without power supply if the weather is not so cold.</t>
+  </si>
+  <si>
+    <t>*This revolutionary system is insanely durable and literally cannot lose conductivity unless it's cut by a machete.</t>
+  </si>
+  <si>
+    <t>*Special waterproof sealing is applied to heat system</t>
+  </si>
+  <si>
+    <t>Camping Cookware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rlrueyal 15pcs Camping Cookware Mess Kit,Non-Stick Lightweight Pots Set Portable Outdoor Cookware for Camping Backpacking Hiking Outdoor Cooking and Picnic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Rlrueyal-Cookware-Non-Stick-Lightweight-Backpacking/dp/B0B9RMPQ36/ref=sr_1_5?crid=37AA49II8E45K&amp;keywords=camping+cooking&amp;qid=1688791001&amp;sprefix=camping+sleeping+bags%2Caps%2C413&amp;sr=8-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety material Outdoor Cookware:This camping cooker is made of food grade aluminum alloy, with food safety certification, non-toxic, fast heat conduction, wear resistance and corrosion resistance. The tableware is made of 304 stainless steel. They are light and easy to carry, helping you enjoy delicious food outdoors!</t>
+  </si>
+  <si>
+    <t>15 PCS Outdoor Cooking Sets:Anodized Aluminum Nonstick Pot(5.70"x 3.14"(approx.))+ Nonstick Frying Pan(6.10"x1.37"(approx.) ) + Pan Cover(5.43"(approx.)),MINI STOVE WITH PIEZO IGNITION(compatible with any 7/16 thread fuel canisters),Stove storage box,304 stainless steel folding knife and fork spoon set,tableware portable bag,BPA Free Soup Spoon,two BPA Free bowl,wooden spoon,portable Carabiner,vegetable sponge,portable nylon set bag</t>
+  </si>
+  <si>
+    <t>Easy to Carry &amp;Save Space &amp;Foldable:this Camping Cookware Accessories can be packed into the pot,Accessories have matching storage bags or boxes,Avoid missing accessories,The two pots can be nested together,This set of products can be just put into the nylon bag,The size after storage is:the diameter is 4.6 inches, the height is 6.1 inches,and the weight is only 1.26LB,So it is easy to carry and saves space</t>
+  </si>
+  <si>
+    <t>Camping Pot Set for 2-3 Person:The size of this Camping Pot Set is suitable for 2-3 people. It is suitable for those who like hiking, camping, mountaineering, picnic or other outdoor activities. It is also a perfect gift for friends and relatives</t>
+  </si>
+  <si>
+    <t>Intimate after-sales service:We are very confident in the quality of our products. We have a professional after-sales team to solve your problems. If you have any questions, you can contact us on Amazon. We will let you have a pleasant shopping experience. I wish you a happy journey in advance!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Stainless-Camping-Cookware-Gasoline-Cooking/dp/B0BTSJL1J2/ref=sr_1_73?crid=37AA49II8E45K&amp;keywords=camping+cooking&amp;qid=1688791129&amp;sprefix=camping+sleeping+bags%2Caps%2C413&amp;sr=8-73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YFDM 9pcs Stainless Steel Camping Cookware Mess Kit with Gasoline Stove Cooking Pot Pan Oil Bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This camping cookware mess kit .</t>
+  </si>
+  <si>
+    <t>very convenient for camping, hiking, backpacking, and other outdoor occasions.</t>
+  </si>
+  <si>
+    <t>foldable handles for space saving.</t>
+  </si>
+  <si>
+    <t>Foldable scoop and spork are compact for easy storage.</t>
+  </si>
+  <si>
+    <t>Soft sponge to clean the cookware after each meal.</t>
   </si>
 </sst>
 </file>
@@ -418,15 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,19 +574,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -455,49 +594,264 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>27.19</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>54.59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>23.99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26">
+        <v>1430</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>20.99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>726</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/products info/products info.xlsx
+++ b/products info/products info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>product #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,157 @@
   </si>
   <si>
     <t>Soft sponge to clean the cookware after each meal.</t>
+  </si>
+  <si>
+    <t>Eureka Copper Canyon LX 8-Person Tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/189399/eureka-copper-canyon-lx-8-person-tent</t>
+  </si>
+  <si>
+    <t>3-pole cabin-style tent provides generous living space; near-vertical walls provide standing room and are ideal when camping with air mattresses or cots</t>
+  </si>
+  <si>
+    <t>Freestanding, combination steel/fiberglass frame with quick clips, pole sleeves and corner hubs makes setup easy, even for 1 person</t>
+  </si>
+  <si>
+    <t>Extended fly coverage over the door provides extra weather protection and a dry entryway</t>
+  </si>
+  <si>
+    <t>Storm guyout pockets</t>
+  </si>
+  <si>
+    <t>Zippered E! Powerport lets you easily run an extension cord inside so you can keep everyone's gadgets charged</t>
+  </si>
+  <si>
+    <t>Gear lofts add interior organization</t>
+  </si>
+  <si>
+    <t>Divider curtain makes it easy to split the space in twot's basically like having your own 2-bedroom cabin at camp</t>
+  </si>
+  <si>
+    <t>ALPS Mountaineering Meramac 6 Tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/185045/alps-mountaineering-meramac-6-tent</t>
+  </si>
+  <si>
+    <t>Nylon taffeta body and rainfly are light and durable</t>
+  </si>
+  <si>
+    <t>Uncoated walls and large mesh side panels let the tent breathe under the urethane-coated fly to help reduce condensation</t>
+  </si>
+  <si>
+    <t>Freestanding, 2-pole design with shockcorded 11mm fiberglass poles provides sturdy support</t>
+  </si>
+  <si>
+    <t>Rainfly is full length on the sides; center rainfly pole creates an awning over each door for excellent rain protection</t>
+  </si>
+  <si>
+    <t>Factory-sealed floor and rainfly seams help ensure you stay dry inside tent</t>
+  </si>
+  <si>
+    <t>2 doors help eliminate the need to crawl over others to get in and out; doors also allow cross ventilation in hot, muggy weather</t>
+  </si>
+  <si>
+    <t>#8 zippers</t>
+  </si>
+  <si>
+    <t>Mesh storage pocket and gear loft keep small items organized and off the floor</t>
+  </si>
+  <si>
+    <t>Includes stakes and guylines</t>
+  </si>
+  <si>
+    <t>Closeout</t>
+  </si>
+  <si>
+    <t>HEST Foamy Sleeping Pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/203057/hest-foamy-sleeping-pad</t>
+  </si>
+  <si>
+    <t>Contains 2 layers of enhanced memory foam: Top layer is a plush body-contouring and temperature-resilient foam, bottom layer provides support and pressure point relief</t>
+  </si>
+  <si>
+    <t>No pump or air is needed—simply toss Foamy into your van and unroll when you're at camp</t>
+  </si>
+  <si>
+    <t>Waterproof lower fabric encases the bottom of the mattress, keeping you and the memory foam dry when it's soggy out</t>
+  </si>
+  <si>
+    <t>Handy connector clips on the sides make it easy to expand your sleeping space when you're rolling with a plus one</t>
+  </si>
+  <si>
+    <t>A conveniently located pocket at the top of the mattress lets you stash your phone and other small essentials</t>
+  </si>
+  <si>
+    <t>Compact roll-up design makes for easy transport and storage</t>
+  </si>
+  <si>
+    <t>Integrated compression harness with durable clips and straps make it easy pack up Foamy tight and small</t>
+  </si>
+  <si>
+    <t>When Foamy is unrolled, the compression harness doubles as a welcome mat; use it as a dry, flat platform to change on</t>
+  </si>
+  <si>
+    <t>Durable grab-and-go handle makes transport a breeze</t>
+  </si>
+  <si>
+    <t>Cover is easy to remove and machine wash</t>
+  </si>
+  <si>
+    <t>Cooking Utensils</t>
+  </si>
+  <si>
+    <t>https://www.rei.com/product/129646/gsi-outdoors-santoku-knife-set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSI Outdoors Santoku Knife Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compact stainless-steel blades are rockered for kitchen prep and other camp use</t>
+  </si>
+  <si>
+    <t>Protective sheaths ensure safe handling and help maintain sharpness</t>
+  </si>
+  <si>
+    <t>Ergonomic rubber handles provide a steady grip</t>
+  </si>
+  <si>
+    <t>Folding cutting board is easy to carry and unfolds to reveal a generous 12.6 x 9 in. prep surface</t>
+  </si>
+  <si>
+    <t>Quick-drying, microfiber cleaning cloth has a soft, nonabrasive side for delicate items and a rough, scouring side for scrubbing</t>
+  </si>
+  <si>
+    <t>Includes 4 in. paring knife with sheath; 6 in. chef's knife with sheath; 6 in. serrated knife with sheath; folding cutting board; soap bottle; dish cloth; nylon case</t>
+  </si>
+  <si>
+    <t>Ballistic nylon outer case keeps everything organized</t>
+  </si>
+  <si>
+    <t>https://www.decathlon.ca/en/p/8492729/4-person-stainless-non-stick-cooking-set-mh-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quechua 4-Person Stainless Camping Cook Set - MH 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This clever, complete, efficient cookset is made for 4 people to be able to cook like chefs and eat outside! Durable stainless steel with aluminum double bottom for efficient heating. Non-stick coating for easier cooking and cleaning. Complete and compact for 4 people.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,12 +420,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,6 +1008,253 @@
         <v>56</v>
       </c>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49">
+        <v>499.95</v>
+      </c>
+      <c r="J49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58">
+        <v>186.73</v>
+      </c>
+      <c r="J58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70">
+        <v>349</v>
+      </c>
+      <c r="J70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
+      </c>
+      <c r="H82">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
